--- a/biology/Zoologie/Chamelea_gallina/Chamelea_gallina.xlsx
+++ b/biology/Zoologie/Chamelea_gallina/Chamelea_gallina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chamelea gallina (anciennement Venus gallina) est une espèce de mollusques bivalves comestibles, de la famille des Veneridae.
 			Valve droite
@@ -513,51 +525,54 @@
           <t>Historique et dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce Chamelea gallina a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Venus gallina[1].
-Synonymie
-Venus gallina Linnaeus, 1758 Protonyme
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Chamelea gallina a été décrite par le naturaliste suédois Carl von Linné en 1758, sous le nom initial de Venus gallina.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chamelea_gallina</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamelea_gallina</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Historique et dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Venus gallina Linnaeus, 1758 Protonyme
 Venus striatula E. M. da Costa, 1778
 Venus sinuata Born, 1778
 Venus corrugatula Krynicki, 1837
 Venus nucleus Statuti, 1880
 Venus nuculata Locard, 1892
-Chione schottii Dall, 1902
-Noms vernaculaires
-Chamelea gallina peut être appelée localement vénus, petite praire, ou gallinette.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Chamelea_gallina</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Chamelea_gallina</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Taxinomie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste des sous-espèces
-Chamelea gallina gallina, en Méditerranée
-Chamelea gallinastriatula, dans l'Atlantique</t>
+Chione schottii Dall, 1902</t>
         </is>
       </c>
     </row>
@@ -582,13 +597,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution</t>
+          <t>Historique et dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chamelea gallina se trouve sur les côtes de l'Atlantique Est, de Norvège et îles Britanniques, Portugal, Maroc, Madère et Canaries. Elle est également connue dans la Méditerranée et la mer Noire, enfin elle est abondante dans la mer Adriatique.
-</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Chamelea gallina peut être appelée localement vénus, petite praire, ou gallinette.</t>
         </is>
       </c>
     </row>
@@ -613,10 +633,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces
+Chamelea gallina gallina, en Méditerranée
+Chamelea gallinastriatula, dans l'Atlantique</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chamelea_gallina</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamelea_gallina</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chamelea gallina se trouve sur les côtes de l'Atlantique Est, de Norvège et îles Britanniques, Portugal, Maroc, Madère et Canaries. Elle est également connue dans la Méditerranée et la mer Noire, enfin elle est abondante dans la mer Adriatique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chamelea_gallina</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chamelea_gallina</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fait l'objet d'une pêche assez intensive à l'aide de dragues (« Rastro » ou Gabia pour les catalans) et parfois (en Italie notamment) en fluidifiant le sédiment à l'aide d'un jet d'eau ce qui réduit la consommation d'énergie du bateau de pêche mais contribue à fortement augmenter la turbidité et la pollution de l'eau (remise en suspension de polluants absorbés dans le sédiment).
 </t>
